--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>499843.6852323462</v>
+        <v>492832.9561163514</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>192.9977501517604</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3.793264709508339</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>69.98930104614972</v>
+        <v>14.55061502820319</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>129.6022067968809</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>17.60604880713488</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>137.5708227141233</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>111.4540244625702</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,13 +984,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968097</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>116.186257688694</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>123.0068651509153</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>76.79874421296769</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>346.1789716428086</v>
+        <v>211.0844929122726</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>114.7398479781408</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>113.1667354347866</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>77.40180093749139</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372793</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>12.01905989104644</v>
+        <v>93.77010711362806</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993879</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>66.69208978862569</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681703</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>60.685168714561</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901692</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>63.83940654028821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H14" t="n">
-        <v>74.54449883854863</v>
+        <v>2.498197583086309</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>95.97124632650394</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S16" t="n">
-        <v>17.82564122505563</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277665</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135901</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380515</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.463826709389</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126123</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596575007</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973565019</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086857</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.778159243564</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.57601873167852</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196092</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380065</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667976</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644703</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883916</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541121</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658314</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701039054</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656637</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407385</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546743</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.959599222137</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697379</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
@@ -3749,7 +3749,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412925</v>
@@ -3758,7 +3758,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,19 +3785,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W41" t="n">
         <v>236.9290753658111</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978639</v>
@@ -3964,7 +3964,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,7 +3986,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412925</v>
@@ -3995,7 +3995,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
         <v>236.9290753658111</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978639</v>
@@ -4201,7 +4201,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1335.973020717819</v>
+        <v>467.5200366979536</v>
       </c>
       <c r="C2" t="n">
-        <v>1335.973020717819</v>
+        <v>467.5200366979536</v>
       </c>
       <c r="D2" t="n">
-        <v>1335.973020717819</v>
+        <v>467.5200366979536</v>
       </c>
       <c r="E2" t="n">
-        <v>1335.973020717819</v>
+        <v>467.5200366979536</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477964</v>
+        <v>454.6660022683354</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357995</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150838</v>
+        <v>914.0882813934893</v>
       </c>
       <c r="N2" t="n">
-        <v>1434.057092150838</v>
+        <v>1427.690960003178</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606226</v>
+        <v>1726.974845685403</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023269</v>
+        <v>1880.21511544141</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023269</v>
+        <v>1624.462385876008</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.790056023269</v>
+        <v>1624.462385876008</v>
       </c>
       <c r="W2" t="n">
-        <v>2132.958475508614</v>
+        <v>1253.463350844296</v>
       </c>
       <c r="X2" t="n">
-        <v>2132.958475508614</v>
+        <v>864.0107457773524</v>
       </c>
       <c r="Y2" t="n">
-        <v>1736.467766429216</v>
+        <v>467.5200366979536</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021424</v>
+        <v>735.5070029058129</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622346</v>
+        <v>584.8527724659051</v>
       </c>
       <c r="D3" t="n">
-        <v>375.070220083715</v>
+        <v>454.7638050873854</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946027</v>
+        <v>318.3173141982732</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777345</v>
+        <v>193.885508081405</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475495</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475495</v>
+        <v>90.89050074442692</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144823</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653859</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875478</v>
+        <v>1985.128818155983</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466459</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535681</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813767</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413231</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784298</v>
+        <v>1306.727660863476</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917585</v>
+        <v>1076.610414996763</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675965</v>
+        <v>887.3033373467742</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431038</v>
+        <v>887.3033373467742</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>661.6122798674851</v>
+        <v>517.9349901776709</v>
       </c>
       <c r="C4" t="n">
-        <v>661.6122798674851</v>
+        <v>517.9349901776709</v>
       </c>
       <c r="D4" t="n">
-        <v>661.6122798674851</v>
+        <v>362.3018770801857</v>
       </c>
       <c r="E4" t="n">
-        <v>661.6122798674851</v>
+        <v>362.3018770801857</v>
       </c>
       <c r="F4" t="n">
-        <v>530.7009598706356</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="G4" t="n">
-        <v>362.4469059700812</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="H4" t="n">
-        <v>206.9683549315751</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865301</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="W4" t="n">
-        <v>661.6122798674851</v>
+        <v>535.7188778616455</v>
       </c>
       <c r="X4" t="n">
-        <v>661.6122798674851</v>
+        <v>517.9349901776709</v>
       </c>
       <c r="Y4" t="n">
-        <v>661.6122798674851</v>
+        <v>517.9349901776709</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>204.4324722799288</v>
+        <v>690.715349566289</v>
       </c>
       <c r="C5" t="n">
-        <v>65.4720452959659</v>
+        <v>690.715349566289</v>
       </c>
       <c r="D5" t="n">
-        <v>65.4720452959659</v>
+        <v>305.2742207829567</v>
       </c>
       <c r="E5" t="n">
-        <v>65.4720452959659</v>
+        <v>305.2742207829567</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634772</v>
+        <v>292.4201863533385</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475495</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475495</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475495</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150838</v>
+        <v>1193.075989993384</v>
       </c>
       <c r="N5" t="n">
-        <v>1961.8683757883</v>
+        <v>1706.678668603073</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737747</v>
+        <v>1706.678668603073</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737747</v>
+        <v>1890.316777675977</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.27650096432</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.27650096432</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.523771398919</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="V5" t="n">
-        <v>1372.416962102437</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="W5" t="n">
-        <v>1001.417927070725</v>
+        <v>1480.662700344629</v>
       </c>
       <c r="X5" t="n">
-        <v>1001.417927070725</v>
+        <v>1091.210095277686</v>
       </c>
       <c r="Y5" t="n">
-        <v>604.9272179913257</v>
+        <v>1091.210095277686</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>628.1400073801022</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>477.4857769401945</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>347.3968095616748</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>210.9503186725625</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>210.9503186725625</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>90.89050074442692</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442692</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475495</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475495</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>43.49565939475495</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653859</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875478</v>
+        <v>1985.128818155983</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466459</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182857</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737747</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737747</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813767</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863476</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996763</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>959.2505587455564</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>779.9363418210636</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>525.6543410279892</v>
+        <v>442.8906019016982</v>
       </c>
       <c r="C7" t="n">
-        <v>355.4492230939784</v>
+        <v>442.8906019016982</v>
       </c>
       <c r="D7" t="n">
-        <v>231.1998643556801</v>
+        <v>442.8906019016982</v>
       </c>
       <c r="E7" t="n">
-        <v>231.1998643556801</v>
+        <v>287.3317897609007</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865301</v>
+        <v>287.3317897609007</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865301</v>
+        <v>119.0777358603463</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865301</v>
+        <v>119.0777358603463</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="X7" t="n">
-        <v>710.8623597192905</v>
+        <v>442.8906019016982</v>
       </c>
       <c r="Y7" t="n">
-        <v>710.8623597192905</v>
+        <v>442.8906019016982</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1811.466307371623</v>
+        <v>1004.842378447763</v>
       </c>
       <c r="C8" t="n">
-        <v>1418.290805874553</v>
+        <v>611.6668769506938</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.290805874553</v>
+        <v>611.6668769506938</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>611.6668769506938</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
         <v>185.6500870090788</v>
@@ -4802,22 +4802,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1614.549747034508</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.142036303753</v>
+        <v>1614.549747034508</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.142036303753</v>
+        <v>1218.059037955109</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5108437565973</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>163.2118064431</v>
       </c>
       <c r="C10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>834.4501588705843</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>834.4501588705843</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>598.7311070388184</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>313.2923152807194</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>163.2118064431</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1369.296937795194</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="C11" t="n">
-        <v>1047.917711444318</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="D11" t="n">
-        <v>734.2728578071801</v>
+        <v>1056.832157813863</v>
       </c>
       <c r="E11" t="n">
-        <v>403.4856080699185</v>
+        <v>726.0449080766008</v>
       </c>
       <c r="F11" t="n">
-        <v>403.4856080699185</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3093.815920669365</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3093.815920669365</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2909.859466250158</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2639.54893209987</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2340.346172214352</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2022.689842293602</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>1697.995408360398</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>303.5573325675166</v>
+        <v>385.6496467242596</v>
       </c>
       <c r="C13" t="n">
-        <v>303.5573325675166</v>
+        <v>287.2408039364426</v>
       </c>
       <c r="D13" t="n">
-        <v>303.5573325675166</v>
+        <v>219.8750566752045</v>
       </c>
       <c r="E13" t="n">
-        <v>303.5573325675166</v>
+        <v>219.8750566752045</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675166</v>
+        <v>219.8750566752045</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208438</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173671</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593277</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1444.627927593277</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245441</v>
+        <v>1067.0626342958</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915622</v>
+        <v>872.8795642628183</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689337</v>
+        <v>661.3454373401898</v>
       </c>
       <c r="X13" t="n">
-        <v>368.0415815981107</v>
+        <v>499.0613902693671</v>
       </c>
       <c r="Y13" t="n">
-        <v>303.5573325675166</v>
+        <v>499.0613902693671</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1856.233416454656</v>
+        <v>1452.672125045209</v>
       </c>
       <c r="C14" t="n">
-        <v>1534.85419010378</v>
+        <v>1131.292898694334</v>
       </c>
       <c r="D14" t="n">
-        <v>1221.209336466642</v>
+        <v>817.6480450571953</v>
       </c>
       <c r="E14" t="n">
-        <v>890.4220867293803</v>
+        <v>817.6480450571953</v>
       </c>
       <c r="F14" t="n">
-        <v>545.323923405552</v>
+        <v>472.5498817333669</v>
       </c>
       <c r="G14" t="n">
-        <v>203.957443039749</v>
+        <v>131.1834013675639</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2827.282650873813</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2827.282650873813</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2827.282650873813</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>2509.626320953064</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="Y14" t="n">
-        <v>2184.931887019859</v>
+        <v>1781.370595610412</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1345.668748541356</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
-        <v>1862.189031132337</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>329.7399060250779</v>
+        <v>402.1207374143128</v>
       </c>
       <c r="C16" t="n">
-        <v>231.3310632372609</v>
+        <v>303.7118946264958</v>
       </c>
       <c r="D16" t="n">
-        <v>231.3310632372609</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="E16" t="n">
-        <v>231.3310632372609</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="F16" t="n">
-        <v>145.8014035964277</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964277</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118221</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5461,25 +5461,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1426.622229386151</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1262.699452700579</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>1049.056936088674</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>854.8738660556921</v>
+        <v>872.8795642628188</v>
       </c>
       <c r="W16" t="n">
-        <v>643.3397391330636</v>
+        <v>661.3454373401903</v>
       </c>
       <c r="X16" t="n">
-        <v>481.0556920622406</v>
+        <v>499.0613902693673</v>
       </c>
       <c r="Y16" t="n">
-        <v>329.7399060250779</v>
+        <v>499.0613902693673</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5537,25 +5537,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1345.668748541356</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
-        <v>1862.189031132337</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P18" t="n">
-        <v>2267.810399848734</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5683,10 +5683,10 @@
         <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5841,13 +5841,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229933</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222412</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L22" t="n">
-        <v>313.661451296041</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6072,19 +6072,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229973</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222416</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,52 +6224,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>247.9841471388005</v>
+        <v>303.7986541368142</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958356</v>
+        <v>755.8323718938493</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614364</v>
+        <v>1249.152663612378</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6315,13 +6315,13 @@
         <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>2157.335302368295</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>2157.335302368295</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,19 +6464,19 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662623</v>
+        <v>606.9665031662627</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6552,13 +6552,13 @@
         <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>2157.335302368295</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878069</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879682</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746021</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
         <v>1592.975474628627</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108109</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835534</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J32" t="n">
-        <v>262.3706492640371</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>726.6260980185692</v>
+        <v>614.2474104019227</v>
       </c>
       <c r="L32" t="n">
-        <v>1325.219482464168</v>
+        <v>1107.567702120451</v>
       </c>
       <c r="M32" t="n">
-        <v>1976.493475235819</v>
+        <v>1653.568602165032</v>
       </c>
       <c r="N32" t="n">
-        <v>2504.304758873281</v>
+        <v>2181.379885802494</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.34435976561</v>
+        <v>2621.419486694823</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897131</v>
+        <v>3081.259099401327</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>2153.517991661507</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.6713676929733</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404875</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245273</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652548</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597527</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407233</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374227</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803363</v>
+        <v>225.4160927171013</v>
       </c>
       <c r="L34" t="n">
-        <v>391.009579354136</v>
+        <v>389.5437325909011</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188142</v>
+        <v>687.4874315041477</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770937</v>
+        <v>870.6770655353569</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145872</v>
+        <v>1145.033953152048</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1264.910118928626</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.98443587366</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387762</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250213</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273705</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400731</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045812</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027496</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7026,7 +7026,7 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>2146.089571124861</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O36" t="n">
         <v>2146.089571124861</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7157,7 +7157,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
         <v>542.6718405099314</v>
@@ -7166,7 +7166,7 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7263,7 +7263,7 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>2146.089571124861</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
         <v>2146.089571124861</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229942</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7394,55 +7394,55 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924233</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411557</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129464</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404082</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358937</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403518</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.88373204098</v>
       </c>
       <c r="O41" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933308</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.11082506483</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205779</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205779</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829238</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071062</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573995</v>
@@ -7485,7 +7485,7 @@
         <v>111.506381692204</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411557</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
@@ -7500,13 +7500,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>2146.089571124861</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885599</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634916</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407268</v>
+        <v>87.33863074072687</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462922</v>
+        <v>63.53681638462927</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411557</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411557</v>
       </c>
       <c r="K43" t="n">
-        <v>278.5901810446702</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L43" t="n">
-        <v>442.71782091847</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
-        <v>629.009399256734</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879432</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
         <v>1094.77996610623</v>
@@ -7594,25 +7594,25 @@
         <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918815</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161908</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194235</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330095</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974528</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,16 +7810,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960415</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.009399256734</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879432</v>
+        <v>683.1426636655151</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P46" t="n">
         <v>1094.77996610623</v>
@@ -7831,25 +7831,25 @@
         <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7982,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519586</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920154</v>
       </c>
       <c r="O2" t="n">
-        <v>546.067257076003</v>
+        <v>451.8707926586673</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>419.0606576562852</v>
+        <v>611.1777065035432</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886035</v>
+        <v>604.1626973083979</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>183.6305080413553</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519586</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920154</v>
       </c>
       <c r="O5" t="n">
-        <v>364.6290838376797</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>335.7944867085045</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>533.3182154539896</v>
+        <v>611.1777065035432</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886035</v>
+        <v>604.1626973083979</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>183.6305080413553</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>155.1237765063188</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,13 +8529,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>317.5329465084876</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8544,10 +8544,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,13 +9003,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9018,13 +9018,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9179,7 +9179,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9240,13 +9240,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9255,13 +9255,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>204.7702368236083</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9489,16 +9489,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9720,22 +9720,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9963,16 +9963,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>630.6030013529513</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10200,16 +10200,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>630.6030013529513</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P30" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10437,16 +10437,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>212.248871977908</v>
       </c>
       <c r="P33" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10674,10 +10674,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>630.6030013529515</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>87.08336481931465</v>
@@ -10911,10 +10911,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>630.6030013529515</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>87.08336481931465</v>
@@ -11148,16 +11148,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>630.6030013529515</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>233.1066041632757</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>81.75104722258158</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>16.30637978315282</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465762</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442489</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338907</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>85.96322163650294</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>175.2194086958937</v>
+        <v>247.265709951356</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>16.30637978315243</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>111.8839693594886</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-6.679101716144942e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>844602.8241493226</v>
+        <v>844602.8241493225</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>844602.8241493226</v>
+        <v>844602.8241493225</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>955760.5438947906</v>
+        <v>955760.5438947907</v>
       </c>
     </row>
     <row r="8">
@@ -26314,10 +26314,10 @@
         <v>306564.7027587066</v>
       </c>
       <c r="C2" t="n">
-        <v>306564.7027587067</v>
+        <v>306564.7027587065</v>
       </c>
       <c r="D2" t="n">
-        <v>306564.7027587068</v>
+        <v>306564.7027587066</v>
       </c>
       <c r="E2" t="n">
         <v>270910.3398214812</v>
@@ -26329,7 +26329,7 @@
         <v>306564.7027587063</v>
       </c>
       <c r="H2" t="n">
-        <v>306564.7027587064</v>
+        <v>306564.7027587063</v>
       </c>
       <c r="I2" t="n">
         <v>306564.7027587063</v>
@@ -26341,19 +26341,19 @@
         <v>306564.7027587065</v>
       </c>
       <c r="L2" t="n">
-        <v>306564.7027587063</v>
+        <v>306564.7027587065</v>
       </c>
       <c r="M2" t="n">
         <v>306564.7027587064</v>
       </c>
       <c r="N2" t="n">
-        <v>306564.7027587063</v>
+        <v>306564.7027587062</v>
       </c>
       <c r="O2" t="n">
         <v>306564.7027587064</v>
       </c>
       <c r="P2" t="n">
-        <v>306564.7027587065</v>
+        <v>306564.7027587064</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.6570340554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062201</v>
+        <v>22558.42953401326</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668196</v>
+        <v>47425.32553668201</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728558</v>
+        <v>62456.24177539664</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081111</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277119</v>
+        <v>27767.69404277127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243105</v>
+        <v>173918.2775005334</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243105</v>
+        <v>173918.2775005334</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373745</v>
+        <v>74084.49552373742</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373745</v>
+        <v>74084.49552373742</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="H4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="I4" t="n">
         <v>121843.4120153196</v>
@@ -26445,10 +26445,10 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="N4" t="n">
         <v>121843.4120153197</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481726</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481726</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26494,10 +26494,10 @@
         <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551969</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109530.6498974734</v>
+        <v>-106382.2993106994</v>
       </c>
       <c r="C6" t="n">
-        <v>72674.29839438247</v>
+        <v>67476.35772335576</v>
       </c>
       <c r="D6" t="n">
-        <v>67811.01610050729</v>
+        <v>60074.72687711587</v>
       </c>
       <c r="E6" t="n">
-        <v>31517.26312385872</v>
+        <v>31307.53157716919</v>
       </c>
       <c r="F6" t="n">
-        <v>143639.8245979032</v>
+        <v>143430.0930512137</v>
       </c>
       <c r="G6" t="n">
-        <v>79126.19589118505</v>
+        <v>79126.19589118497</v>
       </c>
       <c r="H6" t="n">
-        <v>126551.5214278671</v>
+        <v>126551.5214278669</v>
       </c>
       <c r="I6" t="n">
         <v>126551.5214278671</v>
       </c>
       <c r="J6" t="n">
-        <v>-86490.39616941838</v>
+        <v>-79974.11101484552</v>
       </c>
       <c r="K6" t="n">
         <v>120311.7530250842</v>
       </c>
       <c r="L6" t="n">
-        <v>65129.16409046287</v>
+        <v>61080.32687999095</v>
       </c>
       <c r="M6" t="n">
-        <v>84350.69196824406</v>
+        <v>83298.99695705599</v>
       </c>
       <c r="N6" t="n">
-        <v>126551.521427867</v>
+        <v>126551.5214278669</v>
       </c>
       <c r="O6" t="n">
-        <v>98783.82738509586</v>
+        <v>98783.82738509576</v>
       </c>
       <c r="P6" t="n">
-        <v>126551.5214278672</v>
+        <v>126551.5214278673</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,7 +26802,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293145</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014446</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085251</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660698</v>
+        <v>78.0703022192458</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551339</v>
+        <v>17.5800495428746</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346391</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506378</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.3622249971655</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042786</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085251</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506378</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27388,16 +27388,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>28.26784626441707</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>363.4957799718871</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48.86991870270448</v>
+        <v>104.308604720651</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -27540,19 +27540,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>26.15046864227583</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>214.1334701877119</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>251.6729237679754</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>297.5771034943067</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27704,13 +27704,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862709</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>71.22774918479442</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>31.06991681559506</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>54.96473689632519</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.31082661147428</v>
+        <v>185.4053053420103</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,13 +27859,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,16 +27910,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>53.7632187765299</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>9.49524403896217</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="17">
@@ -28755,13 +28755,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>35.71049010668767</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>35.71049010668801</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28980,31 +28980,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>28.01250026485211</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,19 +29217,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>35.71049010668857</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>35.71049010668821</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29296,7 +29296,7 @@
         <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>30.27223765901226</v>
+        <v>86.65052755599581</v>
       </c>
       <c r="K26" t="n">
         <v>93.99127447431647</v>
@@ -29308,19 +29308,19 @@
         <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
         <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431647</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>30.27223765901221</v>
+        <v>30.27223765901255</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,40 +29746,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J32" t="n">
-        <v>48.65992738833071</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>43.49509683160369</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>76.79385455031743</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861253955</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="35">
@@ -30165,25 +30165,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>35.71049010668821</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>5.636002634529518</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155841</v>
       </c>
       <c r="G38" t="n">
         <v>130.3599693155844</v>
@@ -30402,28 +30402,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668825</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634528316</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30457,31 +30457,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2.728484105318785e-12</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733418</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="42">
@@ -30615,34 +30615,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J43" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>35.71049010668862</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>5.6360026345302</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30882,16 +30882,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5.636002634529603</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>5.636002634529973</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -32488,7 +32488,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -34702,16 +34702,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="O2" t="n">
-        <v>396.5034196519065</v>
+        <v>302.3069552345709</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>326.6735356069732</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>90.94294915246635</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="O5" t="n">
-        <v>215.0652464135833</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>185.4930394675793</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>440.9310934046777</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>90.94294915246635</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>5.39872490859157</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>227.4725996515693</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35264,10 +35264,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257281</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488436</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35738,13 +35738,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35975,13 +35975,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.7820836676943</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,13 +36051,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>220.7505244816465</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>156.7975262446462</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36209,16 +36209,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529095</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516621</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634529496</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>201.4959849287082</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.3831193851013</v>
+        <v>232.7614092820848</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>545.2308884987847</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>392.8806780907918</v>
+        <v>392.8806780907922</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,16 +36920,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>545.2308884987847</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>194.7708091144197</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>406.1035372633833</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,10 +37084,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792974</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>299.4926067837689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>159.4555122371274</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>206.8877800653315</v>
+        <v>300.9532312255017</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>277.1281693097886</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>116.2366837828622</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37394,10 +37394,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>545.2308884987849</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>201.4959849287082</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37476,10 +37476,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724877</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37631,10 +37631,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>545.2308884987849</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634529181</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37713,13 +37713,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644680799</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260917</v>
       </c>
       <c r="K41" t="n">
         <v>362.6084404317796</v>
@@ -37868,16 +37868,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>545.2308884987849</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>118.3721477934986</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37953,7 +37953,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724884</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>171.4214974565496</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094888</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
